--- a/experiments/robustness_gpt4o_mini.xlsx
+++ b/experiments/robustness_gpt4o_mini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F28ACCF-E65B-AF4C-8021-24A5DAC6BDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D49475C-C9B1-8640-B7D6-5A5DEF609EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Все оценки" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="123">
   <si>
     <t>file</t>
   </si>
@@ -1054,6 +1054,203 @@
 overall_comment: To improve, focus on developing ideas more clearly, enhancing cohesion between paragraphs, using a wider range of vocabulary accurately, and increasing grammatical accuracy and complexity.</t>
   </si>
   <si>
+    <t>Full task prompt (prod style)</t>
+  </si>
+  <si>
+    <t>task_achievement_score: 7  
+task_achievement_comment: Covers requirements with minimal omissions. Key features are highlighted but may lack clarity or development.
+coherence_and_cohesion_score: 7  
+coherence_and_cohesion_comment: Clear progression. Some over/underuse of cohesive devices.
+lexical_resource_score: 7  
+lexical_resource_comment: Shows variety. Some less common vocabulary. Occasional awkward use.
+grammatical_range_and_accuracy_score: 6  
+grammatical_range_and_accuracy_comment: Limited complexity. Some errors.
+overall_band_score: 6.5  
+overall_comment: The response effectively addresses the task but could improve in grammatical range and clarity in presenting key features.</t>
+  </si>
+  <si>
+    <t>task_achievement_score: 6  
+task_achievement_comment: The response addresses the task and presents both viewpoints on dealing with bad situations. However, some examples lack depth and clarity, which slightly undermines the argument's effectiveness.
+coherence_and_cohesion_score: 6  
+coherence_and_cohesion_comment: The overall structure is generally clear, with logical progression; however, some transitions between ideas could be smoother, and there are instances of awkward phrasing that disrupt the flow.
+lexical_resource_score: 6  
+lexical_resource_comment: The vocabulary used is adequate and shows some variety, but there are instances of repetition and occasional awkward phrasing, which limit the overall effectiveness of word choice.
+grammatical_range_and_accuracy_score: 5  
+grammatical_range_and_accuracy_comment: The response contains several grammatical errors and awkward sentence structures, which can affect clarity. There is limited use of complex grammatical structures.
+overall_band_score: 5.5  
+overall_comment: To improve, the student should focus on providing clearer examples, enhancing the coherence between ideas, and minimizing grammatical errors to strengthen overall clarity and effectiveness.</t>
+  </si>
+  <si>
+    <t>task_achievement_score: 6
+task_achievement_comment: The response adequately addresses the task, providing information about export earnings. However, some details are unclear, and the overall comparison could be more effectively developed.
+coherence_and_cohesion_score: 5
+coherence_and_cohesion_comment: The response shows some logical progression, but the use of cohesive devices is inconsistent, leading to weak connections between some ideas. Paragraphing is present but could be improved for clarity.
+lexical_resource_score: 6
+lexical_resource_comment: The vocabulary is generally adequate, with some variety. However, there are instances of awkward phrasing and repetition that affect the overall effectiveness of the language used.
+grammatical_range_and_accuracy_score: 5
+grammatical_range_and_accuracy_comment: The response includes a mix of simple and some complex sentences, but there are frequent grammatical errors that affect clarity, such as subject-verb agreement issues and sentence structure problems.
+overall_band_score: 5.5
+overall_comment: To improve, focus on clarity and development of ideas, enhance the use of cohesive devices, and work on grammatical accuracy and range.</t>
+  </si>
+  <si>
+    <t>task_achievement_score: 6  
+task_achievement_comment: The response adequately addresses the task, explaining the functioning of a hydroelectric power station and its operations during day and night. However, some details, such as the significance of the process and potential benefits, are underdeveloped, affecting the overall clarity.
+coherence_and_cohesion_score: 6  
+coherence_and_cohesion_comment: The response has a logical structure and progression of ideas, but there are instances where cohesion could be improved, particularly in transitions between points. Some sentences are slightly disjointed, which affects the overall flow.
+lexical_resource_score: 6  
+lexical_resource_comment: The vocabulary used is adequate for the task, with some variety present. However, there are occasional inaccuracies and awkward phrases, such as "reversible turbines," which could lead to confusion. More precise language and varied vocabulary would enhance the response.
+grammatical_range_and_accuracy_score: 5  
+grammatical_range_and_accuracy_comment: The response demonstrates a limited range of grammatical structures with some errors that affect meaning, such as "create and store the energy for the next day." Sentence structures tend to be simple, and inaccuracies are present, which detracts from the overall quality.
+overall_band_score: 5.5  
+overall_comment: To improve, focus on enhancing clarity and detail in explanations, improving cohesion between ideas, and expanding grammatical range while minimizing errors.</t>
+  </si>
+  <si>
+    <t>---EVALUATION START---
+task_achievement_score: 7
+task_achievement_comment: The response adequately addresses the task by discussing the significance of various environmental issues, including species loss, climate change, and plastic pollution. However, some points could be more thoroughly developed to enhance clarity.
+coherence_and_cohesion_score: 7
+coherence_and_cohesion_comment: The essay demonstrates a clear progression of ideas, with logical paragraphing. However, there are occasional lapses in cohesion that could be improved for better flow.
+lexical_resource_score: 7
+lexical_resource_comment: The vocabulary used is varied and appropriate, with some less common phrases. There are occasional awkward usages, but overall, the lexical resource is sufficient for the task.
+grammatical_range_and_accuracy_score: 7
+grammatical_range_and_accuracy_comment: The response shows a good range of grammatical structures with mostly accurate usage. There are some errors, but they do not significantly impede meaning.
+overall_band_score: 7.0
+overall_comment: To improve, focus on developing points more thoroughly and enhancing cohesion between ideas for a smoother flow.</t>
+  </si>
+  <si>
+    <t>task_achievement_score: 8  
+task_achievement_comment: Fully addresses the task with detailed descriptions of the park's features and changes. Key elements are well-presented, though some minor details could be further developed for clarity.
+coherence_and_cohesion_score: 7  
+coherence_and_cohesion_comment: Clear progression of ideas with logical organization. Some use of cohesive devices is present, but there are occasional lapses that affect the flow.
+lexical_resource_score: 7  
+lexical_resource_comment: Good range of vocabulary with some less common terms. There are occasional awkward usages, but overall it demonstrates flexibility.
+grammatical_range_and_accuracy_score: 7  
+grammatical_range_and_accuracy_comment: Shows a variety of sentence structures with mostly accurate grammar. Some errors are present but do not significantly impede meaning.
+overall_band_score: 7.5  
+overall_comment: To improve, focus on enhancing the clarity of some details and ensuring a smoother flow between ideas.</t>
+  </si>
+  <si>
+    <t>---EVALUATION START---
+task_achievement_score: 7
+task_achievement_comment: The response adequately addresses the task by discussing reasons for preferring entrepreneurship and the drawbacks associated with it. However, the explanation could be more developed and some points lack clarity.
+coherence_and_cohesion_score: 7
+coherence_and_cohesion_comment: The essay has a clear structure and logical flow of ideas. Some transitions could be smoother, and there is minor overuse of certain cohesive devices that slightly disrupt the flow.
+lexical_resource_score: 7
+lexical_resource_comment: The vocabulary used is varied and appropriate, with some less common terms. There are occasional awkward phrases, but overall the language is effective and conveys meaning well.
+grammatical_range_and_accuracy_score: 7
+grammatical_range_and_accuracy_comment: The essay demonstrates a good range of grammatical structures and is mostly accurate, though there are a few errors that could affect clarity.
+overall_band_score: 7.0
+overall_comment: To improve, the student should focus on enhancing the clarity and development of their ideas, as well as refining the use of cohesive devices for better flow.</t>
+  </si>
+  <si>
+    <t>task_achievement_score: 5
+task_achievement_comment: Partially addresses the task with some relevant points, but lacks depth and clarity in development. Some examples given are not fully explained.
+coherence_and_cohesion_score: 5
+coherence_and_cohesion_comment: Weak connection of ideas with some overuse of linking devices. The progression of ideas is not always clear, affecting overall coherence.
+lexical_resource_score: 5
+lexical_resource_comment: Limited flexibility in vocabulary with some misuse and repetition. There are instances of awkward phrasing that detract from the overall message.
+grammatical_range_and_accuracy_score: 4
+grammatical_range_and_accuracy_comment: Mostly simple sentences with frequent errors that impact meaning. There is limited complexity and a number of grammatical inaccuracies.
+overall_band_score: 5.0
+overall_comment: To improve, focus on developing ideas more clearly, using varied vocabulary, and enhancing grammatical accuracy and complexity.</t>
+  </si>
+  <si>
+    <t>task_achievement_score: 5
+task_achievement_comment: The response partially addresses the task but lacks clarity and contains inaccuracies in data representation. Key features are mentioned, but some details are underdeveloped or unclear.
+coherence_and_cohesion_score: 5
+coherence_and_cohesion_comment: The organization of ideas is weak, with some unclear relationships between sentences. There is an overuse of mechanical linking devices that disrupts the flow.
+lexical_resource_score: 6
+lexical_resource_comment: The vocabulary used is adequate, with some variety; however, there are instances of awkward phrasing and inaccuracies, such as "a different types of coffee."
+grammatical_range_and_accuracy_score: 5
+grammatical_range_and_accuracy_comment: The response includes frequent grammatical errors and some issues with sentence structure. While there are complex sentences, they are not always used accurately.
+overall_band_score: 5.0
+overall_comment: To improve, focus on accurately presenting data, enhancing the clarity and coherence of ideas, and refining grammatical accuracy.</t>
+  </si>
+  <si>
+    <t>task_achievement_score: 6
+task_achievement_comment: The response addresses the task by discussing the significance of home ownership versus renting. However, it could benefit from clearer organization and more developed ideas, particularly in contrasting the two perspectives.
+coherence_and_cohesion_score: 6
+coherence_and_cohesion_comment: The essay has a logical progression of ideas, but some transitions between points could be smoother. There are instances of abrupt topic shifts that disrupt the flow of thought.
+lexical_resource_score: 6
+lexical_resource_comment: The vocabulary used is adequate and demonstrates some variety, but there are occasional awkward phrases and repetitions. More sophisticated word choices could enhance clarity and precision.
+grammatical_range_and_accuracy_score: 5
+grammatical_range_and_accuracy_comment: The response shows a mix of simple and complex sentences, but there are several grammatical errors and inaccuracies that occasionally obscure meaning. Improvements in sentence structure and grammar would strengthen the writing.
+overall_band_score: 5.5
+overall_comment: To improve, focus on developing ideas more clearly and cohesively, enhance vocabulary variety, and work on grammatical accuracy.</t>
+  </si>
+  <si>
+    <t>task_achievement_score: 6  
+task_achievement_comment: The response adequately addresses the task, providing an overview of the data and some relevant details. However, there are minor inaccuracies in the statistics and some key features could be presented more clearly.
+coherence_and_cohesion_score: 6  
+coherence_and_cohesion_comment: The response is generally coherent with a logical progression of ideas. However, some sentences are overly long and convoluted, which affects clarity. Cohesive devices are used but can be improved for better flow.
+lexical_resource_score: 6  
+lexical_resource_comment: The vocabulary used is adequate, with some variation evident. However, there are instances of awkward phrasing and repetition of certain terms which detracts from the overall fluency.
+grammatical_range_and_accuracy_score: 5  
+grammatical_range_and_accuracy_comment: The response demonstrates some grammatical range, but there are frequent errors in sentence structure and punctuation that occasionally impede clarity. More complex sentences could enhance the overall quality.
+overall_band_score: 5.8  
+overall_comment: To improve, focus on enhancing the clarity and accuracy of data presented, using more varied sentence structures, and refining the use of cohesive devices for better flow.</t>
+  </si>
+  <si>
+    <t>task_achievement_score: 7
+task_achievement_comment: The response addresses the task adequately, presenting both advantages and disadvantages of digital versus printed books. However, some points could be developed further for clarity.
+coherence_and_cohesion_score: 6
+coherence_and_cohesion_comment: The ideas are generally coherent, but there are instances of abrupt transitions and a lack of clear connections between some points. More cohesive devices could enhance the flow.
+lexical_resource_score: 7
+lexical_resource_comment: The vocabulary shows a good range and some less common phrases are used. There are occasional inaccuracies, but they do not significantly hinder understanding.
+grammatical_range_and_accuracy_score: 6
+grammatical_range_and_accuracy_comment: The response demonstrates a mix of simple and complex structures, but there are noticeable grammatical errors that affect clarity in places. Overall accuracy could be improved.
+overall_band_score: 6.5
+overall_comment: To improve, focus on enhancing the clarity of your arguments and ensuring grammatical accuracy throughout the response.</t>
+  </si>
+  <si>
+    <t>task_achievement_score: 7
+task_achievement_comment: Covers requirements with minimal omissions. Key features are highlighted but may lack clarity or development.
+coherence_and_cohesion_score: 6
+coherence_and_cohesion_comment: Generally coherent but cohesion may be faulty or mechanical.
+lexical_resource_score: 6
+lexical_resource_comment: Adequate range. Some inaccuracy or repetition.
+grammatical_range_and_accuracy_score: 6
+grammatical_range_and_accuracy_comment: Limited complexity. Some errors.
+overall_band_score: 6.0
+overall_comment: To improve, focus on enhancing coherence and clarity in descriptions, as well as varying vocabulary and sentence structures.</t>
+  </si>
+  <si>
+    <t>task_achievement_score: 7
+task_achievement_comment: The response adequately addresses the task by discussing both the effectiveness and ineffectiveness of advertisements. Key features are highlighted, but some points could use further development for clarity.
+coherence_and_cohesion_score: 7
+coherence_and_cohesion_comment: The essay has a clear progression of ideas, but there are some minor lapses in cohesion, particularly in linking certain sentences and ideas more fluidly.
+lexical_resource_score: 7
+lexical_resource_comment: The vocabulary used is varied and appropriate, with some less common terms. However, there are instances of awkward phrasing which detract from the overall fluency.
+grammatical_range_and_accuracy_score: 6
+grammatical_range_and_accuracy_comment: The response demonstrates a reasonable range of grammatical structures, but there are several grammatical errors that affect clarity and accuracy.
+overall_band_score: 6.5
+overall_comment: To improve, focus on developing key points more fully, enhancing cohesion between ideas, and addressing grammatical errors for greater clarity.</t>
+  </si>
+  <si>
+    <t>task_achievement_score: 6
+task_achievement_comment: Adequately addresses the task, but contains some inaccuracies and insufficient detail regarding the salary breakdown. The mention of the unknown status of some graduates is unclear.
+coherence_and_cohesion_score: 6
+coherence_and_cohesion_comment: Generally coherent, but there are instances of awkward phrasing and repetition that disrupt the flow. Some linking devices are used, but with mechanical overuse.
+lexical_resource_score: 6
+lexical_resource_comment: Adequate range of vocabulary with some inaccuracies, such as "concultantants" and "ninety-nine." Occasional repetition limits overall effectiveness.
+grammatical_range_and_accuracy_score: 5
+grammatical_range_and_accuracy_comment: Limited complexity with several grammatical errors, including sentence structure issues and punctuation mistakes that affect clarity.
+overall_band_score: 5.5
+overall_comment: To improve, focus on providing clearer details and ensuring accuracy in both vocabulary and grammar, while enhancing the overall coherence of the response.</t>
+  </si>
+  <si>
+    <t>task_achievement_score: 6
+task_achievement_comment: The response addresses the task by discussing the implications of telling children they can achieve anything through hard work. However, some points lack clarity and development, particularly regarding the economic perspective.
+coherence_and_cohesion_score: 6
+coherence_and_cohesion_comment: The essay is generally coherent with a clear progression of ideas. However, there are some mechanical aspects to cohesion, and linking devices could be used more effectively to enhance clarity.
+lexical_resource_score: 6
+lexical_resource_comment: The vocabulary used is adequate for the task, with some variety. However, there are instances of awkward phrasing and inaccuracies, such as "is all about working hard."
+grammatical_range_and_accuracy_score: 5
+grammatical_range_and_accuracy_comment: The response shows some grammatical complexity, but there are frequent errors that affect meaning, such as subject-verb agreement and incorrect word forms.
+overall_band_score: 5.5
+overall_comment: To improve, focus on developing ideas more clearly, enhancing cohesion between sentences, and correcting grammatical errors.</t>
+  </si>
+  <si>
     <t>mean_score</t>
   </si>
   <si>
@@ -1064,9 +1261,6 @@
   </si>
   <si>
     <t>cv</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1422,15 +1616,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView zoomScale="57" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1475,11 +1672,8 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1501,11 +1695,8 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1527,11 +1718,8 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1553,11 +1741,8 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1579,11 +1764,8 @@
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1605,11 +1787,8 @@
       <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1631,11 +1810,8 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1657,11 +1833,8 @@
       <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1683,11 +1856,8 @@
       <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="H10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1709,11 +1879,8 @@
       <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1735,11 +1902,8 @@
       <c r="G12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1761,11 +1925,8 @@
       <c r="G13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1787,11 +1948,8 @@
       <c r="G14" t="s">
         <v>28</v>
       </c>
-      <c r="H14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1813,11 +1971,8 @@
       <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1839,11 +1994,8 @@
       <c r="G16" t="s">
         <v>30</v>
       </c>
-      <c r="H16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1865,11 +2017,8 @@
       <c r="G17" t="s">
         <v>32</v>
       </c>
-      <c r="H17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1891,11 +2040,8 @@
       <c r="G18" t="s">
         <v>33</v>
       </c>
-      <c r="H18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1917,11 +2063,8 @@
       <c r="G19" t="s">
         <v>34</v>
       </c>
-      <c r="H19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1943,11 +2086,8 @@
       <c r="G20" t="s">
         <v>35</v>
       </c>
-      <c r="H20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1969,11 +2109,8 @@
       <c r="G21" t="s">
         <v>36</v>
       </c>
-      <c r="H21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1995,11 +2132,8 @@
       <c r="G22" t="s">
         <v>38</v>
       </c>
-      <c r="H22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2021,11 +2155,8 @@
       <c r="G23" t="s">
         <v>39</v>
       </c>
-      <c r="H23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2047,11 +2178,8 @@
       <c r="G24" t="s">
         <v>40</v>
       </c>
-      <c r="H24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2073,11 +2201,8 @@
       <c r="G25" t="s">
         <v>41</v>
       </c>
-      <c r="H25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2099,11 +2224,8 @@
       <c r="G26" t="s">
         <v>42</v>
       </c>
-      <c r="H26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2125,11 +2247,8 @@
       <c r="G27" t="s">
         <v>44</v>
       </c>
-      <c r="H27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2151,11 +2270,8 @@
       <c r="G28" t="s">
         <v>45</v>
       </c>
-      <c r="H28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2177,11 +2293,8 @@
       <c r="G29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2203,11 +2316,8 @@
       <c r="G30" t="s">
         <v>47</v>
       </c>
-      <c r="H30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2229,11 +2339,8 @@
       <c r="G31" t="s">
         <v>48</v>
       </c>
-      <c r="H31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2255,11 +2362,8 @@
       <c r="G32" t="s">
         <v>50</v>
       </c>
-      <c r="H32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2281,11 +2385,8 @@
       <c r="G33" t="s">
         <v>51</v>
       </c>
-      <c r="H33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -2307,11 +2408,8 @@
       <c r="G34" t="s">
         <v>52</v>
       </c>
-      <c r="H34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2333,11 +2431,8 @@
       <c r="G35" t="s">
         <v>53</v>
       </c>
-      <c r="H35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2359,11 +2454,8 @@
       <c r="G36" t="s">
         <v>54</v>
       </c>
-      <c r="H36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -2385,11 +2477,8 @@
       <c r="G37" t="s">
         <v>56</v>
       </c>
-      <c r="H37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -2411,11 +2500,8 @@
       <c r="G38" t="s">
         <v>57</v>
       </c>
-      <c r="H38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2437,11 +2523,8 @@
       <c r="G39" t="s">
         <v>58</v>
       </c>
-      <c r="H39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -2463,11 +2546,8 @@
       <c r="G40" t="s">
         <v>59</v>
       </c>
-      <c r="H40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2489,11 +2569,8 @@
       <c r="G41" t="s">
         <v>60</v>
       </c>
-      <c r="H41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2515,11 +2592,8 @@
       <c r="G42" t="s">
         <v>62</v>
       </c>
-      <c r="H42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2541,11 +2615,8 @@
       <c r="G43" t="s">
         <v>63</v>
       </c>
-      <c r="H43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2567,11 +2638,8 @@
       <c r="G44" t="s">
         <v>64</v>
       </c>
-      <c r="H44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2593,11 +2661,8 @@
       <c r="G45" t="s">
         <v>65</v>
       </c>
-      <c r="H45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2619,11 +2684,8 @@
       <c r="G46" t="s">
         <v>66</v>
       </c>
-      <c r="H46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2645,11 +2707,8 @@
       <c r="G47" t="s">
         <v>67</v>
       </c>
-      <c r="H47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2671,11 +2730,8 @@
       <c r="G48" t="s">
         <v>68</v>
       </c>
-      <c r="H48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2697,11 +2753,8 @@
       <c r="G49" t="s">
         <v>69</v>
       </c>
-      <c r="H49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2723,11 +2776,8 @@
       <c r="G50" t="s">
         <v>70</v>
       </c>
-      <c r="H50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2749,11 +2799,8 @@
       <c r="G51" t="s">
         <v>71</v>
       </c>
-      <c r="H51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -2775,11 +2822,8 @@
       <c r="G52" t="s">
         <v>72</v>
       </c>
-      <c r="H52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -2801,11 +2845,8 @@
       <c r="G53" t="s">
         <v>73</v>
       </c>
-      <c r="H53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -2827,11 +2868,8 @@
       <c r="G54" t="s">
         <v>74</v>
       </c>
-      <c r="H54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -2853,11 +2891,8 @@
       <c r="G55" t="s">
         <v>75</v>
       </c>
-      <c r="H55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -2879,11 +2914,8 @@
       <c r="G56" t="s">
         <v>76</v>
       </c>
-      <c r="H56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -2905,11 +2937,8 @@
       <c r="G57" t="s">
         <v>77</v>
       </c>
-      <c r="H57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -2931,11 +2960,8 @@
       <c r="G58" t="s">
         <v>78</v>
       </c>
-      <c r="H58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -2957,11 +2983,8 @@
       <c r="G59" t="s">
         <v>79</v>
       </c>
-      <c r="H59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -2983,11 +3006,8 @@
       <c r="G60" t="s">
         <v>80</v>
       </c>
-      <c r="H60" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -3009,11 +3029,8 @@
       <c r="G61" t="s">
         <v>81</v>
       </c>
-      <c r="H61" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -3035,11 +3052,8 @@
       <c r="G62" t="s">
         <v>82</v>
       </c>
-      <c r="H62" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -3061,11 +3075,8 @@
       <c r="G63" t="s">
         <v>83</v>
       </c>
-      <c r="H63" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -3087,11 +3098,8 @@
       <c r="G64" t="s">
         <v>84</v>
       </c>
-      <c r="H64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -3113,11 +3121,8 @@
       <c r="G65" t="s">
         <v>85</v>
       </c>
-      <c r="H65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -3139,11 +3144,8 @@
       <c r="G66" t="s">
         <v>86</v>
       </c>
-      <c r="H66" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -3165,11 +3167,8 @@
       <c r="G67" t="s">
         <v>87</v>
       </c>
-      <c r="H67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -3191,11 +3190,8 @@
       <c r="G68" t="s">
         <v>88</v>
       </c>
-      <c r="H68" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -3217,11 +3213,8 @@
       <c r="G69" t="s">
         <v>89</v>
       </c>
-      <c r="H69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -3243,11 +3236,8 @@
       <c r="G70" t="s">
         <v>90</v>
       </c>
-      <c r="H70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -3269,11 +3259,8 @@
       <c r="G71" t="s">
         <v>91</v>
       </c>
-      <c r="H71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>43</v>
       </c>
@@ -3295,11 +3282,8 @@
       <c r="G72" t="s">
         <v>92</v>
       </c>
-      <c r="H72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -3321,11 +3305,8 @@
       <c r="G73" t="s">
         <v>93</v>
       </c>
-      <c r="H73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -3347,11 +3328,8 @@
       <c r="G74" t="s">
         <v>94</v>
       </c>
-      <c r="H74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -3373,11 +3351,8 @@
       <c r="G75" t="s">
         <v>95</v>
       </c>
-      <c r="H75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -3399,11 +3374,8 @@
       <c r="G76" t="s">
         <v>96</v>
       </c>
-      <c r="H76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -3425,11 +3397,8 @@
       <c r="G77" t="s">
         <v>97</v>
       </c>
-      <c r="H77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>49</v>
       </c>
@@ -3451,11 +3420,8 @@
       <c r="G78" t="s">
         <v>98</v>
       </c>
-      <c r="H78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -3477,11 +3443,8 @@
       <c r="G79" t="s">
         <v>99</v>
       </c>
-      <c r="H79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>49</v>
       </c>
@@ -3503,11 +3466,8 @@
       <c r="G80" t="s">
         <v>100</v>
       </c>
-      <c r="H80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>49</v>
       </c>
@@ -3529,33 +3489,373 @@
       <c r="G81" t="s">
         <v>101</v>
       </c>
-      <c r="H81" t="s">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82">
+        <v>6.5</v>
+      </c>
+      <c r="F82">
+        <v>6.5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>102</v>
+      </c>
+      <c r="E83">
+        <v>5.5</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>102</v>
+      </c>
+      <c r="E84">
+        <v>5.5</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85">
+        <v>5.5</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H83" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H85" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H86" t="s">
-        <v>106</v>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E86">
+        <v>7</v>
+      </c>
+      <c r="F86">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87">
+        <v>7.5</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E88">
+        <v>7</v>
+      </c>
+      <c r="F88">
+        <v>7.5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>5.5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>102</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91">
+        <v>5.5</v>
+      </c>
+      <c r="F91">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92">
+        <v>5.8</v>
+      </c>
+      <c r="F92">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>102</v>
+      </c>
+      <c r="E93">
+        <v>6.5</v>
+      </c>
+      <c r="F93">
+        <v>6</v>
+      </c>
+      <c r="G93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="F94">
+        <v>6.5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>102</v>
+      </c>
+      <c r="E95">
+        <v>6.5</v>
+      </c>
+      <c r="F95">
+        <v>7</v>
+      </c>
+      <c r="G95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>102</v>
+      </c>
+      <c r="E96">
+        <v>5.5</v>
+      </c>
+      <c r="F96">
+        <v>6</v>
+      </c>
+      <c r="G96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>102</v>
+      </c>
+      <c r="E97">
+        <v>5.5</v>
+      </c>
+      <c r="F97">
+        <v>6.5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3565,16 +3865,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -3582,32 +3881,32 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
         <v>6.0875000000000004</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>0.6581539840088082</v>
       </c>
       <c r="D2">
         <v>2.5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>0.1081156441903586</v>
       </c>
     </row>
@@ -3677,6 +3976,23 @@
       </c>
       <c r="E6">
         <v>0.1246241644710965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>5.9874999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.75443135318375154</v>
+      </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
+      <c r="E7">
+        <v>0.1260010610745306</v>
       </c>
     </row>
   </sheetData>
